--- a/biology/Botanique/Acioa_guianensis/Acioa_guianensis.xlsx
+++ b/biology/Botanique/Acioa_guianensis/Acioa_guianensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Acioa guianensis est une espèce de plantes à fleurs de la famille des Chrysobalanaceae[1]. C'est un arbre d'Amazonie et de Guyane.
-Il est appelé en Guyane Couépi ou Noix de couépi[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Acioa guianensis est une espèce de plantes à fleurs de la famille des Chrysobalanaceae. C'est un arbre d'Amazonie et de Guyane.
+Il est appelé en Guyane Couépi ou Noix de couépi.
 </t>
         </is>
       </c>
@@ -512,12 +524,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Acioa guianensis est un arbre à l'écorce grise, lisse, et haut de 15 à 30 m pour environ 1 m de diamètre.
 Ses feuilles sont simples, alternes, à marges entières, à pétiole poilu-roussâtre, long de 5 à 6 mm pour 2 à 2,5 mm d'épaisseur. Le limbe subcoriace, glabre, est de forme oblongue ou oblongue-lancéolée, brusquement acuminé à l'apex, rétréci ou atténué à la base, et mesure 10 à 12 cm de long sur 5 à 8 cm de large.
 L'inflorescence est terminale en corymbe ou en faisceaux multiflores. Les fleurs violettes sont hermaphrodites, avec un calice en tube obconique long de 10 à 14 mm et large de 3 mm au sommet avec des segments arrondis, inégaux. La corolle est composée de 5 pétales inégaux. On compte 11-12 étamines à filets longuement réunis en lamelle allongée, libres seulement au sommet.
-Le fruit est une drupe sèche, ovale, longue d'environ 5 cm pour 4 à 4,5 cm de diamètre. Le péricarpe est brun, coriace, épais. Le noyau ligneux, brun, est profondément crevassé à maturité, et renferme une amande ovoïde striée, un peu comprimée, mesurant environ 2,5 cm de long, à téguments marron[3].
+Le fruit est une drupe sèche, ovale, longue d'environ 5 cm pour 4 à 4,5 cm de diamètre. Le péricarpe est brun, coriace, épais. Le noyau ligneux, brun, est profondément crevassé à maturité, et renferme une amande ovoïde striée, un peu comprimée, mesurant environ 2,5 cm de long, à téguments marron.
 </t>
         </is>
       </c>
@@ -546,9 +560,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Forêts terrestres de Guyane et d'Amazonie[1] 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Forêts terrestres de Guyane et d'Amazonie 
 </t>
         </is>
       </c>
@@ -577,9 +593,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'amande, de goût assez fin, est consommée crue[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'amande, de goût assez fin, est consommée crue.
 </t>
         </is>
       </c>
@@ -608,9 +626,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet propose le protologue suivant pour Acioa guianensis[4] : 
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet propose le protologue suivant pour Acioa guianensis : 
 « ACIOA Guianenſis. (Tabula 280.) 
 Arbor ſexaginta-pedalis, ad cacumen ramoſiſſima ; ramis hinc &amp; indè ſparſis. Folia alterna, petiolata, glabra, ovata, acuta, integerrima, ſtipulata ; stipulis deciduis. Flores terminales, corymboſi.
 Corolla violacea. Calix albus. Ad maturitatem fructus lignoſus, &amp; ſolidus. Drupa ſicca, nigricans, cortice craſſa, coriaceo, fibroſis ſulcis variis dehiſcentibus notato, tectæ nuclei adhærente. Semen amygdalinum edule, ſaporis grati. 
